--- a/data/HR1/Location1/Location1_2034.xlsx
+++ b/data/HR1/Location1/Location1_2034.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51B039F-56DE-4B57-998A-126C9EE5C848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0709D7F-AA87-4B65-8EB8-692D58E04ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14407,78 +14407,78 @@
         </row>
       </sheetData>
       <sheetData sheetId="11">
-        <row r="1">
-          <cell r="B1">
+        <row r="2">
+          <cell r="B2">
             <v>0</v>
           </cell>
-          <cell r="C1">
-            <v>1</v>
-          </cell>
-          <cell r="D1">
-            <v>2</v>
-          </cell>
-          <cell r="E1">
-            <v>3</v>
-          </cell>
-          <cell r="F1">
-            <v>4</v>
-          </cell>
-          <cell r="G1">
-            <v>5</v>
-          </cell>
-          <cell r="H1">
-            <v>6</v>
-          </cell>
-          <cell r="I1">
-            <v>7</v>
-          </cell>
-          <cell r="J1">
-            <v>8</v>
-          </cell>
-          <cell r="K1">
-            <v>9</v>
-          </cell>
-          <cell r="L1">
-            <v>10</v>
-          </cell>
-          <cell r="M1">
-            <v>11</v>
-          </cell>
-          <cell r="N1">
-            <v>12</v>
-          </cell>
-          <cell r="O1">
-            <v>13</v>
-          </cell>
-          <cell r="P1">
-            <v>14</v>
-          </cell>
-          <cell r="Q1">
-            <v>15</v>
-          </cell>
-          <cell r="R1">
-            <v>16</v>
-          </cell>
-          <cell r="S1">
-            <v>17</v>
-          </cell>
-          <cell r="T1">
-            <v>18</v>
-          </cell>
-          <cell r="U1">
-            <v>19</v>
-          </cell>
-          <cell r="V1">
-            <v>20</v>
-          </cell>
-          <cell r="W1">
-            <v>21</v>
-          </cell>
-          <cell r="X1">
-            <v>22</v>
-          </cell>
-          <cell r="Y1">
-            <v>23</v>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>1.5680716832769496E-5</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>9.5351558928408135E-3</v>
+          </cell>
+          <cell r="J2">
+            <v>0.18890239553808172</v>
+          </cell>
+          <cell r="K2">
+            <v>0.49290093261406231</v>
+          </cell>
+          <cell r="L2">
+            <v>0.61511611959403845</v>
+          </cell>
+          <cell r="M2">
+            <v>0.68321139252080076</v>
+          </cell>
+          <cell r="N2">
+            <v>0.69588141172167872</v>
+          </cell>
+          <cell r="O2">
+            <v>0.68310322757611763</v>
+          </cell>
+          <cell r="P2">
+            <v>0.58327338392612227</v>
+          </cell>
+          <cell r="Q2">
+            <v>0.38544322026149763</v>
+          </cell>
+          <cell r="R2">
+            <v>9.4168304836792532E-2</v>
+          </cell>
+          <cell r="S2">
+            <v>7.3603364725244585E-4</v>
+          </cell>
+          <cell r="T2">
+            <v>6.3362896589558382E-5</v>
+          </cell>
+          <cell r="U2">
+            <v>4.8482216329889367E-5</v>
+          </cell>
+          <cell r="V2">
+            <v>0</v>
+          </cell>
+          <cell r="W2">
+            <v>0</v>
+          </cell>
+          <cell r="X2">
+            <v>0</v>
+          </cell>
+          <cell r="Y2">
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
@@ -14557,78 +14557,78 @@
         </row>
       </sheetData>
       <sheetData sheetId="12">
-        <row r="1">
-          <cell r="B1">
+        <row r="2">
+          <cell r="B2">
             <v>0</v>
           </cell>
-          <cell r="C1">
-            <v>1</v>
-          </cell>
-          <cell r="D1">
-            <v>2</v>
-          </cell>
-          <cell r="E1">
-            <v>3</v>
-          </cell>
-          <cell r="F1">
-            <v>4</v>
-          </cell>
-          <cell r="G1">
-            <v>5</v>
-          </cell>
-          <cell r="H1">
-            <v>6</v>
-          </cell>
-          <cell r="I1">
-            <v>7</v>
-          </cell>
-          <cell r="J1">
-            <v>8</v>
-          </cell>
-          <cell r="K1">
-            <v>9</v>
-          </cell>
-          <cell r="L1">
-            <v>10</v>
-          </cell>
-          <cell r="M1">
-            <v>11</v>
-          </cell>
-          <cell r="N1">
-            <v>12</v>
-          </cell>
-          <cell r="O1">
-            <v>13</v>
-          </cell>
-          <cell r="P1">
-            <v>14</v>
-          </cell>
-          <cell r="Q1">
-            <v>15</v>
-          </cell>
-          <cell r="R1">
-            <v>16</v>
-          </cell>
-          <cell r="S1">
-            <v>17</v>
-          </cell>
-          <cell r="T1">
-            <v>18</v>
-          </cell>
-          <cell r="U1">
-            <v>19</v>
-          </cell>
-          <cell r="V1">
-            <v>20</v>
-          </cell>
-          <cell r="W1">
-            <v>21</v>
-          </cell>
-          <cell r="X1">
-            <v>22</v>
-          </cell>
-          <cell r="Y1">
-            <v>23</v>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>1.9757703209289567E-5</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>1.1537538630337385E-2</v>
+          </cell>
+          <cell r="J2">
+            <v>0.23990604233336377</v>
+          </cell>
+          <cell r="K2">
+            <v>0.63584220307214034</v>
+          </cell>
+          <cell r="L2">
+            <v>0.79965095547225007</v>
+          </cell>
+          <cell r="M2">
+            <v>0.82668578495016887</v>
+          </cell>
+          <cell r="N2">
+            <v>0.90464583523818232</v>
+          </cell>
+          <cell r="O2">
+            <v>0.88120316357319173</v>
+          </cell>
+          <cell r="P2">
+            <v>0.7407571975861752</v>
+          </cell>
+          <cell r="Q2">
+            <v>0.47409516092164211</v>
+          </cell>
+          <cell r="R2">
+            <v>0.11865206409435858</v>
+          </cell>
+          <cell r="S2">
+            <v>9.274023955380818E-4</v>
+          </cell>
+          <cell r="T2">
+            <v>7.8569991771052395E-5</v>
+          </cell>
+          <cell r="U2">
+            <v>5.8663481759166133E-5</v>
+          </cell>
+          <cell r="V2">
+            <v>0</v>
+          </cell>
+          <cell r="W2">
+            <v>0</v>
+          </cell>
+          <cell r="X2">
+            <v>0</v>
+          </cell>
+          <cell r="Y2">
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
@@ -26906,7 +26906,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28576,100 +28576,100 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <f>'[1]Profiles, RES, Summer'!B$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!B$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C21" s="4">
-        <f>'[1]Profiles, RES, Summer'!C$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>10</v>
+        <f>'[1]Profiles, RES, Summer'!C$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="D21" s="4">
-        <f>'[1]Profiles, RES, Summer'!D$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>20</v>
+        <f>'[1]Profiles, RES, Summer'!D$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.9757703209289567E-4</v>
       </c>
       <c r="E21" s="4">
-        <f>'[1]Profiles, RES, Summer'!E$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>30</v>
+        <f>'[1]Profiles, RES, Summer'!E$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="F21" s="4">
-        <f>'[1]Profiles, RES, Summer'!F$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>40</v>
+        <f>'[1]Profiles, RES, Summer'!F$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="G21" s="4">
-        <f>'[1]Profiles, RES, Summer'!G$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>50</v>
+        <f>'[1]Profiles, RES, Summer'!G$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f>'[1]Profiles, RES, Summer'!H$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>60</v>
+        <f>'[1]Profiles, RES, Summer'!H$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I21" s="4">
-        <f>'[1]Profiles, RES, Summer'!I$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>70</v>
+        <f>'[1]Profiles, RES, Summer'!I$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0.11537538630337385</v>
       </c>
       <c r="J21" s="4">
-        <f>'[1]Profiles, RES, Summer'!J$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>80</v>
+        <f>'[1]Profiles, RES, Summer'!J$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>2.3990604233336379</v>
       </c>
       <c r="K21" s="4">
-        <f>'[1]Profiles, RES, Summer'!K$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>90</v>
+        <f>'[1]Profiles, RES, Summer'!K$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.3584220307214032</v>
       </c>
       <c r="L21" s="4">
-        <f>'[1]Profiles, RES, Summer'!L$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>100</v>
+        <f>'[1]Profiles, RES, Summer'!L$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.9965095547225005</v>
       </c>
       <c r="M21" s="4">
-        <f>'[1]Profiles, RES, Summer'!M$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>110</v>
+        <f>'[1]Profiles, RES, Summer'!M$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>8.2668578495016884</v>
       </c>
       <c r="N21" s="4">
-        <f>'[1]Profiles, RES, Summer'!N$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>120</v>
+        <f>'[1]Profiles, RES, Summer'!N$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>9.0464583523818227</v>
       </c>
       <c r="O21" s="4">
-        <f>'[1]Profiles, RES, Summer'!O$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>130</v>
+        <f>'[1]Profiles, RES, Summer'!O$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>8.8120316357319179</v>
       </c>
       <c r="P21" s="4">
-        <f>'[1]Profiles, RES, Summer'!P$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>140</v>
+        <f>'[1]Profiles, RES, Summer'!P$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.4075719758617522</v>
       </c>
       <c r="Q21" s="4">
-        <f>'[1]Profiles, RES, Summer'!Q$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>150</v>
+        <f>'[1]Profiles, RES, Summer'!Q$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>4.7409516092164212</v>
       </c>
       <c r="R21" s="4">
-        <f>'[1]Profiles, RES, Summer'!R$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>160</v>
+        <f>'[1]Profiles, RES, Summer'!R$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.1865206409435858</v>
       </c>
       <c r="S21" s="4">
-        <f>'[1]Profiles, RES, Summer'!S$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>170</v>
+        <f>'[1]Profiles, RES, Summer'!S$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>9.2740239553808189E-3</v>
       </c>
       <c r="T21" s="4">
-        <f>'[1]Profiles, RES, Summer'!T$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>180</v>
+        <f>'[1]Profiles, RES, Summer'!T$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.8569991771052395E-4</v>
       </c>
       <c r="U21" s="4">
-        <f>'[1]Profiles, RES, Summer'!U$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>190</v>
+        <f>'[1]Profiles, RES, Summer'!U$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>5.8663481759166131E-4</v>
       </c>
       <c r="V21" s="4">
-        <f>'[1]Profiles, RES, Summer'!V$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>200</v>
+        <f>'[1]Profiles, RES, Summer'!V$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="W21" s="4">
-        <f>'[1]Profiles, RES, Summer'!W$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>210</v>
+        <f>'[1]Profiles, RES, Summer'!W$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="X21" s="4">
-        <f>'[1]Profiles, RES, Summer'!X$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>220</v>
+        <f>'[1]Profiles, RES, Summer'!X$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="Y21" s="4">
-        <f>'[1]Profiles, RES, Summer'!Y$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>230</v>
+        <f>'[1]Profiles, RES, Summer'!Y$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -28677,100 +28677,100 @@
         <v>21</v>
       </c>
       <c r="B22" s="4">
-        <f>'[1]Profiles, RES, Summer'!B$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!B$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C22" s="4">
-        <f>'[1]Profiles, RES, Summer'!C$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>10</v>
+        <f>'[1]Profiles, RES, Summer'!C$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="D22" s="4">
-        <f>'[1]Profiles, RES, Summer'!D$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>20</v>
+        <f>'[1]Profiles, RES, Summer'!D$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.9757703209289567E-4</v>
       </c>
       <c r="E22" s="4">
-        <f>'[1]Profiles, RES, Summer'!E$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>30</v>
+        <f>'[1]Profiles, RES, Summer'!E$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="F22" s="4">
-        <f>'[1]Profiles, RES, Summer'!F$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>40</v>
+        <f>'[1]Profiles, RES, Summer'!F$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="G22" s="4">
-        <f>'[1]Profiles, RES, Summer'!G$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>50</v>
+        <f>'[1]Profiles, RES, Summer'!G$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f>'[1]Profiles, RES, Summer'!H$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>60</v>
+        <f>'[1]Profiles, RES, Summer'!H$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f>'[1]Profiles, RES, Summer'!I$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>70</v>
+        <f>'[1]Profiles, RES, Summer'!I$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0.11537538630337385</v>
       </c>
       <c r="J22" s="4">
-        <f>'[1]Profiles, RES, Summer'!J$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>80</v>
+        <f>'[1]Profiles, RES, Summer'!J$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>2.3990604233336379</v>
       </c>
       <c r="K22" s="4">
-        <f>'[1]Profiles, RES, Summer'!K$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>90</v>
+        <f>'[1]Profiles, RES, Summer'!K$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.3584220307214032</v>
       </c>
       <c r="L22" s="4">
-        <f>'[1]Profiles, RES, Summer'!L$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>100</v>
+        <f>'[1]Profiles, RES, Summer'!L$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.9965095547225005</v>
       </c>
       <c r="M22" s="4">
-        <f>'[1]Profiles, RES, Summer'!M$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>110</v>
+        <f>'[1]Profiles, RES, Summer'!M$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>8.2668578495016884</v>
       </c>
       <c r="N22" s="4">
-        <f>'[1]Profiles, RES, Summer'!N$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>120</v>
+        <f>'[1]Profiles, RES, Summer'!N$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>9.0464583523818227</v>
       </c>
       <c r="O22" s="4">
-        <f>'[1]Profiles, RES, Summer'!O$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>130</v>
+        <f>'[1]Profiles, RES, Summer'!O$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>8.8120316357319179</v>
       </c>
       <c r="P22" s="4">
-        <f>'[1]Profiles, RES, Summer'!P$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>140</v>
+        <f>'[1]Profiles, RES, Summer'!P$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.4075719758617522</v>
       </c>
       <c r="Q22" s="4">
-        <f>'[1]Profiles, RES, Summer'!Q$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>150</v>
+        <f>'[1]Profiles, RES, Summer'!Q$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>4.7409516092164212</v>
       </c>
       <c r="R22" s="4">
-        <f>'[1]Profiles, RES, Summer'!R$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>160</v>
+        <f>'[1]Profiles, RES, Summer'!R$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.1865206409435858</v>
       </c>
       <c r="S22" s="4">
-        <f>'[1]Profiles, RES, Summer'!S$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>170</v>
+        <f>'[1]Profiles, RES, Summer'!S$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>9.2740239553808189E-3</v>
       </c>
       <c r="T22" s="4">
-        <f>'[1]Profiles, RES, Summer'!T$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>180</v>
+        <f>'[1]Profiles, RES, Summer'!T$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.8569991771052395E-4</v>
       </c>
       <c r="U22" s="4">
-        <f>'[1]Profiles, RES, Summer'!U$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>190</v>
+        <f>'[1]Profiles, RES, Summer'!U$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>5.8663481759166131E-4</v>
       </c>
       <c r="V22" s="4">
-        <f>'[1]Profiles, RES, Summer'!V$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>200</v>
+        <f>'[1]Profiles, RES, Summer'!V$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="W22" s="4">
-        <f>'[1]Profiles, RES, Summer'!W$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>210</v>
+        <f>'[1]Profiles, RES, Summer'!W$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="X22" s="4">
-        <f>'[1]Profiles, RES, Summer'!X$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>220</v>
+        <f>'[1]Profiles, RES, Summer'!X$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="Y22" s="4">
-        <f>'[1]Profiles, RES, Summer'!Y$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>230</v>
+        <f>'[1]Profiles, RES, Summer'!Y$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -28778,100 +28778,100 @@
         <v>22</v>
       </c>
       <c r="B23" s="4">
-        <f>'[1]Profiles, RES, Summer'!B$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!B$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C23" s="4">
-        <f>'[1]Profiles, RES, Summer'!C$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>10</v>
+        <f>'[1]Profiles, RES, Summer'!C$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="D23" s="4">
-        <f>'[1]Profiles, RES, Summer'!D$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>20</v>
+        <f>'[1]Profiles, RES, Summer'!D$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.9757703209289567E-4</v>
       </c>
       <c r="E23" s="4">
-        <f>'[1]Profiles, RES, Summer'!E$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>30</v>
+        <f>'[1]Profiles, RES, Summer'!E$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="F23" s="4">
-        <f>'[1]Profiles, RES, Summer'!F$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>40</v>
+        <f>'[1]Profiles, RES, Summer'!F$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="G23" s="4">
-        <f>'[1]Profiles, RES, Summer'!G$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>50</v>
+        <f>'[1]Profiles, RES, Summer'!G$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f>'[1]Profiles, RES, Summer'!H$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>60</v>
+        <f>'[1]Profiles, RES, Summer'!H$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I23" s="4">
-        <f>'[1]Profiles, RES, Summer'!I$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>70</v>
+        <f>'[1]Profiles, RES, Summer'!I$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0.11537538630337385</v>
       </c>
       <c r="J23" s="4">
-        <f>'[1]Profiles, RES, Summer'!J$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>80</v>
+        <f>'[1]Profiles, RES, Summer'!J$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>2.3990604233336379</v>
       </c>
       <c r="K23" s="4">
-        <f>'[1]Profiles, RES, Summer'!K$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>90</v>
+        <f>'[1]Profiles, RES, Summer'!K$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.3584220307214032</v>
       </c>
       <c r="L23" s="4">
-        <f>'[1]Profiles, RES, Summer'!L$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>100</v>
+        <f>'[1]Profiles, RES, Summer'!L$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.9965095547225005</v>
       </c>
       <c r="M23" s="4">
-        <f>'[1]Profiles, RES, Summer'!M$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>110</v>
+        <f>'[1]Profiles, RES, Summer'!M$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>8.2668578495016884</v>
       </c>
       <c r="N23" s="4">
-        <f>'[1]Profiles, RES, Summer'!N$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>120</v>
+        <f>'[1]Profiles, RES, Summer'!N$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>9.0464583523818227</v>
       </c>
       <c r="O23" s="4">
-        <f>'[1]Profiles, RES, Summer'!O$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>130</v>
+        <f>'[1]Profiles, RES, Summer'!O$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>8.8120316357319179</v>
       </c>
       <c r="P23" s="4">
-        <f>'[1]Profiles, RES, Summer'!P$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>140</v>
+        <f>'[1]Profiles, RES, Summer'!P$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.4075719758617522</v>
       </c>
       <c r="Q23" s="4">
-        <f>'[1]Profiles, RES, Summer'!Q$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>150</v>
+        <f>'[1]Profiles, RES, Summer'!Q$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>4.7409516092164212</v>
       </c>
       <c r="R23" s="4">
-        <f>'[1]Profiles, RES, Summer'!R$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>160</v>
+        <f>'[1]Profiles, RES, Summer'!R$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.1865206409435858</v>
       </c>
       <c r="S23" s="4">
-        <f>'[1]Profiles, RES, Summer'!S$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>170</v>
+        <f>'[1]Profiles, RES, Summer'!S$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>9.2740239553808189E-3</v>
       </c>
       <c r="T23" s="4">
-        <f>'[1]Profiles, RES, Summer'!T$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>180</v>
+        <f>'[1]Profiles, RES, Summer'!T$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.8569991771052395E-4</v>
       </c>
       <c r="U23" s="4">
-        <f>'[1]Profiles, RES, Summer'!U$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>190</v>
+        <f>'[1]Profiles, RES, Summer'!U$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>5.8663481759166131E-4</v>
       </c>
       <c r="V23" s="4">
-        <f>'[1]Profiles, RES, Summer'!V$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>200</v>
+        <f>'[1]Profiles, RES, Summer'!V$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="W23" s="4">
-        <f>'[1]Profiles, RES, Summer'!W$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>210</v>
+        <f>'[1]Profiles, RES, Summer'!W$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="X23" s="4">
-        <f>'[1]Profiles, RES, Summer'!X$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>220</v>
+        <f>'[1]Profiles, RES, Summer'!X$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="Y23" s="4">
-        <f>'[1]Profiles, RES, Summer'!Y$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>230</v>
+        <f>'[1]Profiles, RES, Summer'!Y$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -28879,100 +28879,100 @@
         <v>23</v>
       </c>
       <c r="B24" s="4">
-        <f>'[1]Profiles, RES, Summer'!B$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!B$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C24" s="4">
-        <f>'[1]Profiles, RES, Summer'!C$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>10</v>
+        <f>'[1]Profiles, RES, Summer'!C$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="D24" s="4">
-        <f>'[1]Profiles, RES, Summer'!D$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>20</v>
+        <f>'[1]Profiles, RES, Summer'!D$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.9757703209289567E-4</v>
       </c>
       <c r="E24" s="4">
-        <f>'[1]Profiles, RES, Summer'!E$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>30</v>
+        <f>'[1]Profiles, RES, Summer'!E$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
-        <f>'[1]Profiles, RES, Summer'!F$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>40</v>
+        <f>'[1]Profiles, RES, Summer'!F$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="G24" s="4">
-        <f>'[1]Profiles, RES, Summer'!G$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>50</v>
+        <f>'[1]Profiles, RES, Summer'!G$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f>'[1]Profiles, RES, Summer'!H$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>60</v>
+        <f>'[1]Profiles, RES, Summer'!H$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I24" s="4">
-        <f>'[1]Profiles, RES, Summer'!I$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>70</v>
+        <f>'[1]Profiles, RES, Summer'!I$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0.11537538630337385</v>
       </c>
       <c r="J24" s="4">
-        <f>'[1]Profiles, RES, Summer'!J$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>80</v>
+        <f>'[1]Profiles, RES, Summer'!J$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>2.3990604233336379</v>
       </c>
       <c r="K24" s="4">
-        <f>'[1]Profiles, RES, Summer'!K$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>90</v>
+        <f>'[1]Profiles, RES, Summer'!K$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.3584220307214032</v>
       </c>
       <c r="L24" s="4">
-        <f>'[1]Profiles, RES, Summer'!L$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>100</v>
+        <f>'[1]Profiles, RES, Summer'!L$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.9965095547225005</v>
       </c>
       <c r="M24" s="4">
-        <f>'[1]Profiles, RES, Summer'!M$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>110</v>
+        <f>'[1]Profiles, RES, Summer'!M$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>8.2668578495016884</v>
       </c>
       <c r="N24" s="4">
-        <f>'[1]Profiles, RES, Summer'!N$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>120</v>
+        <f>'[1]Profiles, RES, Summer'!N$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>9.0464583523818227</v>
       </c>
       <c r="O24" s="4">
-        <f>'[1]Profiles, RES, Summer'!O$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>130</v>
+        <f>'[1]Profiles, RES, Summer'!O$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>8.8120316357319179</v>
       </c>
       <c r="P24" s="4">
-        <f>'[1]Profiles, RES, Summer'!P$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>140</v>
+        <f>'[1]Profiles, RES, Summer'!P$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.4075719758617522</v>
       </c>
       <c r="Q24" s="4">
-        <f>'[1]Profiles, RES, Summer'!Q$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>150</v>
+        <f>'[1]Profiles, RES, Summer'!Q$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>4.7409516092164212</v>
       </c>
       <c r="R24" s="4">
-        <f>'[1]Profiles, RES, Summer'!R$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>160</v>
+        <f>'[1]Profiles, RES, Summer'!R$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.1865206409435858</v>
       </c>
       <c r="S24" s="4">
-        <f>'[1]Profiles, RES, Summer'!S$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>170</v>
+        <f>'[1]Profiles, RES, Summer'!S$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>9.2740239553808189E-3</v>
       </c>
       <c r="T24" s="4">
-        <f>'[1]Profiles, RES, Summer'!T$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>180</v>
+        <f>'[1]Profiles, RES, Summer'!T$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.8569991771052395E-4</v>
       </c>
       <c r="U24" s="4">
-        <f>'[1]Profiles, RES, Summer'!U$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>190</v>
+        <f>'[1]Profiles, RES, Summer'!U$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>5.8663481759166131E-4</v>
       </c>
       <c r="V24" s="4">
-        <f>'[1]Profiles, RES, Summer'!V$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>200</v>
+        <f>'[1]Profiles, RES, Summer'!V$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="W24" s="4">
-        <f>'[1]Profiles, RES, Summer'!W$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>210</v>
+        <f>'[1]Profiles, RES, Summer'!W$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="X24" s="4">
-        <f>'[1]Profiles, RES, Summer'!X$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>220</v>
+        <f>'[1]Profiles, RES, Summer'!X$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="Y24" s="4">
-        <f>'[1]Profiles, RES, Summer'!Y$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>230</v>
+        <f>'[1]Profiles, RES, Summer'!Y$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -28980,100 +28980,100 @@
         <v>24</v>
       </c>
       <c r="B25" s="4">
-        <f>'[1]Profiles, RES, Summer'!B$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Summer'!B$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C25" s="4">
-        <f>'[1]Profiles, RES, Summer'!C$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>10</v>
+        <f>'[1]Profiles, RES, Summer'!C$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="D25" s="4">
-        <f>'[1]Profiles, RES, Summer'!D$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>20</v>
+        <f>'[1]Profiles, RES, Summer'!D$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.9757703209289567E-4</v>
       </c>
       <c r="E25" s="4">
-        <f>'[1]Profiles, RES, Summer'!E$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>30</v>
+        <f>'[1]Profiles, RES, Summer'!E$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="F25" s="4">
-        <f>'[1]Profiles, RES, Summer'!F$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>40</v>
+        <f>'[1]Profiles, RES, Summer'!F$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="G25" s="4">
-        <f>'[1]Profiles, RES, Summer'!G$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>50</v>
+        <f>'[1]Profiles, RES, Summer'!G$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f>'[1]Profiles, RES, Summer'!H$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>60</v>
+        <f>'[1]Profiles, RES, Summer'!H$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I25" s="4">
-        <f>'[1]Profiles, RES, Summer'!I$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>70</v>
+        <f>'[1]Profiles, RES, Summer'!I$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0.11537538630337385</v>
       </c>
       <c r="J25" s="4">
-        <f>'[1]Profiles, RES, Summer'!J$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>80</v>
+        <f>'[1]Profiles, RES, Summer'!J$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>2.3990604233336379</v>
       </c>
       <c r="K25" s="4">
-        <f>'[1]Profiles, RES, Summer'!K$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>90</v>
+        <f>'[1]Profiles, RES, Summer'!K$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.3584220307214032</v>
       </c>
       <c r="L25" s="4">
-        <f>'[1]Profiles, RES, Summer'!L$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>100</v>
+        <f>'[1]Profiles, RES, Summer'!L$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.9965095547225005</v>
       </c>
       <c r="M25" s="4">
-        <f>'[1]Profiles, RES, Summer'!M$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>110</v>
+        <f>'[1]Profiles, RES, Summer'!M$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>8.2668578495016884</v>
       </c>
       <c r="N25" s="4">
-        <f>'[1]Profiles, RES, Summer'!N$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>120</v>
+        <f>'[1]Profiles, RES, Summer'!N$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>9.0464583523818227</v>
       </c>
       <c r="O25" s="4">
-        <f>'[1]Profiles, RES, Summer'!O$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>130</v>
+        <f>'[1]Profiles, RES, Summer'!O$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>8.8120316357319179</v>
       </c>
       <c r="P25" s="4">
-        <f>'[1]Profiles, RES, Summer'!P$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>140</v>
+        <f>'[1]Profiles, RES, Summer'!P$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.4075719758617522</v>
       </c>
       <c r="Q25" s="4">
-        <f>'[1]Profiles, RES, Summer'!Q$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>150</v>
+        <f>'[1]Profiles, RES, Summer'!Q$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>4.7409516092164212</v>
       </c>
       <c r="R25" s="4">
-        <f>'[1]Profiles, RES, Summer'!R$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>160</v>
+        <f>'[1]Profiles, RES, Summer'!R$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.1865206409435858</v>
       </c>
       <c r="S25" s="4">
-        <f>'[1]Profiles, RES, Summer'!S$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>170</v>
+        <f>'[1]Profiles, RES, Summer'!S$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>9.2740239553808189E-3</v>
       </c>
       <c r="T25" s="4">
-        <f>'[1]Profiles, RES, Summer'!T$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>180</v>
+        <f>'[1]Profiles, RES, Summer'!T$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.8569991771052395E-4</v>
       </c>
       <c r="U25" s="4">
-        <f>'[1]Profiles, RES, Summer'!U$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>190</v>
+        <f>'[1]Profiles, RES, Summer'!U$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>5.8663481759166131E-4</v>
       </c>
       <c r="V25" s="4">
-        <f>'[1]Profiles, RES, Summer'!V$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>200</v>
+        <f>'[1]Profiles, RES, Summer'!V$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="W25" s="4">
-        <f>'[1]Profiles, RES, Summer'!W$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>210</v>
+        <f>'[1]Profiles, RES, Summer'!W$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="X25" s="4">
-        <f>'[1]Profiles, RES, Summer'!X$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>220</v>
+        <f>'[1]Profiles, RES, Summer'!X$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="Y25" s="4">
-        <f>'[1]Profiles, RES, Summer'!Y$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>230</v>
+        <f>'[1]Profiles, RES, Summer'!Y$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -33239,7 +33239,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38271,7 +38271,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40709,7 +40709,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+      <selection sqref="A1:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43147,7 +43147,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44817,100 +44817,100 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <f>'[1]Profiles, RES, Winter'!B$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!B$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C21" s="4">
-        <f>'[1]Profiles, RES, Winter'!C$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>10</v>
+        <f>'[1]Profiles, RES, Winter'!C$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="D21" s="4">
-        <f>'[1]Profiles, RES, Winter'!D$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>20</v>
+        <f>'[1]Profiles, RES, Winter'!D$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.5680716832769495E-4</v>
       </c>
       <c r="E21" s="4">
-        <f>'[1]Profiles, RES, Winter'!E$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>30</v>
+        <f>'[1]Profiles, RES, Winter'!E$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="F21" s="4">
-        <f>'[1]Profiles, RES, Winter'!F$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>40</v>
+        <f>'[1]Profiles, RES, Winter'!F$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="G21" s="4">
-        <f>'[1]Profiles, RES, Winter'!G$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>50</v>
+        <f>'[1]Profiles, RES, Winter'!G$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f>'[1]Profiles, RES, Winter'!H$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>60</v>
+        <f>'[1]Profiles, RES, Winter'!H$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I21" s="4">
-        <f>'[1]Profiles, RES, Winter'!I$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>70</v>
+        <f>'[1]Profiles, RES, Winter'!I$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>9.5351558928408131E-2</v>
       </c>
       <c r="J21" s="4">
-        <f>'[1]Profiles, RES, Winter'!J$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>80</v>
+        <f>'[1]Profiles, RES, Winter'!J$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.8890239553808172</v>
       </c>
       <c r="K21" s="4">
-        <f>'[1]Profiles, RES, Winter'!K$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>90</v>
+        <f>'[1]Profiles, RES, Winter'!K$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>4.9290093261406227</v>
       </c>
       <c r="L21" s="4">
-        <f>'[1]Profiles, RES, Winter'!L$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>100</v>
+        <f>'[1]Profiles, RES, Winter'!L$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.151161195940384</v>
       </c>
       <c r="M21" s="4">
-        <f>'[1]Profiles, RES, Winter'!M$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>110</v>
+        <f>'[1]Profiles, RES, Winter'!M$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.8321139252080076</v>
       </c>
       <c r="N21" s="4">
-        <f>'[1]Profiles, RES, Winter'!N$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>120</v>
+        <f>'[1]Profiles, RES, Winter'!N$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.9588141172167877</v>
       </c>
       <c r="O21" s="4">
-        <f>'[1]Profiles, RES, Winter'!O$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>130</v>
+        <f>'[1]Profiles, RES, Winter'!O$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.8310322757611761</v>
       </c>
       <c r="P21" s="4">
-        <f>'[1]Profiles, RES, Winter'!P$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>140</v>
+        <f>'[1]Profiles, RES, Winter'!P$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>5.8327338392612225</v>
       </c>
       <c r="Q21" s="4">
-        <f>'[1]Profiles, RES, Winter'!Q$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>150</v>
+        <f>'[1]Profiles, RES, Winter'!Q$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>3.8544322026149764</v>
       </c>
       <c r="R21" s="4">
-        <f>'[1]Profiles, RES, Winter'!R$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>160</v>
+        <f>'[1]Profiles, RES, Winter'!R$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0.94168304836792527</v>
       </c>
       <c r="S21" s="4">
-        <f>'[1]Profiles, RES, Winter'!S$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>170</v>
+        <f>'[1]Profiles, RES, Winter'!S$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.3603364725244582E-3</v>
       </c>
       <c r="T21" s="4">
-        <f>'[1]Profiles, RES, Winter'!T$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>180</v>
+        <f>'[1]Profiles, RES, Winter'!T$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.336289658955838E-4</v>
       </c>
       <c r="U21" s="4">
-        <f>'[1]Profiles, RES, Winter'!U$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>190</v>
+        <f>'[1]Profiles, RES, Winter'!U$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>4.8482216329889365E-4</v>
       </c>
       <c r="V21" s="4">
-        <f>'[1]Profiles, RES, Winter'!V$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>200</v>
+        <f>'[1]Profiles, RES, Winter'!V$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="W21" s="4">
-        <f>'[1]Profiles, RES, Winter'!W$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>210</v>
+        <f>'[1]Profiles, RES, Winter'!W$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="X21" s="4">
-        <f>'[1]Profiles, RES, Winter'!X$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>220</v>
+        <f>'[1]Profiles, RES, Winter'!X$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="Y21" s="4">
-        <f>'[1]Profiles, RES, Winter'!Y$1*VLOOKUP($A16,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>230</v>
+        <f>'[1]Profiles, RES, Winter'!Y$2*VLOOKUP($A21,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -44918,100 +44918,100 @@
         <v>21</v>
       </c>
       <c r="B22" s="4">
-        <f>'[1]Profiles, RES, Winter'!B$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!B$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C22" s="4">
-        <f>'[1]Profiles, RES, Winter'!C$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>10</v>
+        <f>'[1]Profiles, RES, Winter'!C$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="D22" s="4">
-        <f>'[1]Profiles, RES, Winter'!D$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>20</v>
+        <f>'[1]Profiles, RES, Winter'!D$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.5680716832769495E-4</v>
       </c>
       <c r="E22" s="4">
-        <f>'[1]Profiles, RES, Winter'!E$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>30</v>
+        <f>'[1]Profiles, RES, Winter'!E$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="F22" s="4">
-        <f>'[1]Profiles, RES, Winter'!F$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>40</v>
+        <f>'[1]Profiles, RES, Winter'!F$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="G22" s="4">
-        <f>'[1]Profiles, RES, Winter'!G$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>50</v>
+        <f>'[1]Profiles, RES, Winter'!G$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f>'[1]Profiles, RES, Winter'!H$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>60</v>
+        <f>'[1]Profiles, RES, Winter'!H$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f>'[1]Profiles, RES, Winter'!I$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>70</v>
+        <f>'[1]Profiles, RES, Winter'!I$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>9.5351558928408131E-2</v>
       </c>
       <c r="J22" s="4">
-        <f>'[1]Profiles, RES, Winter'!J$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>80</v>
+        <f>'[1]Profiles, RES, Winter'!J$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.8890239553808172</v>
       </c>
       <c r="K22" s="4">
-        <f>'[1]Profiles, RES, Winter'!K$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>90</v>
+        <f>'[1]Profiles, RES, Winter'!K$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>4.9290093261406227</v>
       </c>
       <c r="L22" s="4">
-        <f>'[1]Profiles, RES, Winter'!L$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>100</v>
+        <f>'[1]Profiles, RES, Winter'!L$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.151161195940384</v>
       </c>
       <c r="M22" s="4">
-        <f>'[1]Profiles, RES, Winter'!M$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>110</v>
+        <f>'[1]Profiles, RES, Winter'!M$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.8321139252080076</v>
       </c>
       <c r="N22" s="4">
-        <f>'[1]Profiles, RES, Winter'!N$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>120</v>
+        <f>'[1]Profiles, RES, Winter'!N$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.9588141172167877</v>
       </c>
       <c r="O22" s="4">
-        <f>'[1]Profiles, RES, Winter'!O$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>130</v>
+        <f>'[1]Profiles, RES, Winter'!O$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.8310322757611761</v>
       </c>
       <c r="P22" s="4">
-        <f>'[1]Profiles, RES, Winter'!P$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>140</v>
+        <f>'[1]Profiles, RES, Winter'!P$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>5.8327338392612225</v>
       </c>
       <c r="Q22" s="4">
-        <f>'[1]Profiles, RES, Winter'!Q$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>150</v>
+        <f>'[1]Profiles, RES, Winter'!Q$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>3.8544322026149764</v>
       </c>
       <c r="R22" s="4">
-        <f>'[1]Profiles, RES, Winter'!R$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>160</v>
+        <f>'[1]Profiles, RES, Winter'!R$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0.94168304836792527</v>
       </c>
       <c r="S22" s="4">
-        <f>'[1]Profiles, RES, Winter'!S$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>170</v>
+        <f>'[1]Profiles, RES, Winter'!S$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.3603364725244582E-3</v>
       </c>
       <c r="T22" s="4">
-        <f>'[1]Profiles, RES, Winter'!T$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>180</v>
+        <f>'[1]Profiles, RES, Winter'!T$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.336289658955838E-4</v>
       </c>
       <c r="U22" s="4">
-        <f>'[1]Profiles, RES, Winter'!U$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>190</v>
+        <f>'[1]Profiles, RES, Winter'!U$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>4.8482216329889365E-4</v>
       </c>
       <c r="V22" s="4">
-        <f>'[1]Profiles, RES, Winter'!V$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>200</v>
+        <f>'[1]Profiles, RES, Winter'!V$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="W22" s="4">
-        <f>'[1]Profiles, RES, Winter'!W$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>210</v>
+        <f>'[1]Profiles, RES, Winter'!W$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="X22" s="4">
-        <f>'[1]Profiles, RES, Winter'!X$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>220</v>
+        <f>'[1]Profiles, RES, Winter'!X$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="Y22" s="4">
-        <f>'[1]Profiles, RES, Winter'!Y$1*VLOOKUP($A17,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>230</v>
+        <f>'[1]Profiles, RES, Winter'!Y$2*VLOOKUP($A22,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -45019,100 +45019,100 @@
         <v>22</v>
       </c>
       <c r="B23" s="4">
-        <f>'[1]Profiles, RES, Winter'!B$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!B$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C23" s="4">
-        <f>'[1]Profiles, RES, Winter'!C$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>10</v>
+        <f>'[1]Profiles, RES, Winter'!C$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="D23" s="4">
-        <f>'[1]Profiles, RES, Winter'!D$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>20</v>
+        <f>'[1]Profiles, RES, Winter'!D$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.5680716832769495E-4</v>
       </c>
       <c r="E23" s="4">
-        <f>'[1]Profiles, RES, Winter'!E$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>30</v>
+        <f>'[1]Profiles, RES, Winter'!E$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="F23" s="4">
-        <f>'[1]Profiles, RES, Winter'!F$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>40</v>
+        <f>'[1]Profiles, RES, Winter'!F$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="G23" s="4">
-        <f>'[1]Profiles, RES, Winter'!G$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>50</v>
+        <f>'[1]Profiles, RES, Winter'!G$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f>'[1]Profiles, RES, Winter'!H$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>60</v>
+        <f>'[1]Profiles, RES, Winter'!H$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I23" s="4">
-        <f>'[1]Profiles, RES, Winter'!I$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>70</v>
+        <f>'[1]Profiles, RES, Winter'!I$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>9.5351558928408131E-2</v>
       </c>
       <c r="J23" s="4">
-        <f>'[1]Profiles, RES, Winter'!J$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>80</v>
+        <f>'[1]Profiles, RES, Winter'!J$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.8890239553808172</v>
       </c>
       <c r="K23" s="4">
-        <f>'[1]Profiles, RES, Winter'!K$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>90</v>
+        <f>'[1]Profiles, RES, Winter'!K$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>4.9290093261406227</v>
       </c>
       <c r="L23" s="4">
-        <f>'[1]Profiles, RES, Winter'!L$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>100</v>
+        <f>'[1]Profiles, RES, Winter'!L$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.151161195940384</v>
       </c>
       <c r="M23" s="4">
-        <f>'[1]Profiles, RES, Winter'!M$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>110</v>
+        <f>'[1]Profiles, RES, Winter'!M$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.8321139252080076</v>
       </c>
       <c r="N23" s="4">
-        <f>'[1]Profiles, RES, Winter'!N$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>120</v>
+        <f>'[1]Profiles, RES, Winter'!N$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.9588141172167877</v>
       </c>
       <c r="O23" s="4">
-        <f>'[1]Profiles, RES, Winter'!O$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>130</v>
+        <f>'[1]Profiles, RES, Winter'!O$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.8310322757611761</v>
       </c>
       <c r="P23" s="4">
-        <f>'[1]Profiles, RES, Winter'!P$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>140</v>
+        <f>'[1]Profiles, RES, Winter'!P$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>5.8327338392612225</v>
       </c>
       <c r="Q23" s="4">
-        <f>'[1]Profiles, RES, Winter'!Q$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>150</v>
+        <f>'[1]Profiles, RES, Winter'!Q$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>3.8544322026149764</v>
       </c>
       <c r="R23" s="4">
-        <f>'[1]Profiles, RES, Winter'!R$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>160</v>
+        <f>'[1]Profiles, RES, Winter'!R$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0.94168304836792527</v>
       </c>
       <c r="S23" s="4">
-        <f>'[1]Profiles, RES, Winter'!S$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>170</v>
+        <f>'[1]Profiles, RES, Winter'!S$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.3603364725244582E-3</v>
       </c>
       <c r="T23" s="4">
-        <f>'[1]Profiles, RES, Winter'!T$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>180</v>
+        <f>'[1]Profiles, RES, Winter'!T$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.336289658955838E-4</v>
       </c>
       <c r="U23" s="4">
-        <f>'[1]Profiles, RES, Winter'!U$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>190</v>
+        <f>'[1]Profiles, RES, Winter'!U$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>4.8482216329889365E-4</v>
       </c>
       <c r="V23" s="4">
-        <f>'[1]Profiles, RES, Winter'!V$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>200</v>
+        <f>'[1]Profiles, RES, Winter'!V$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="W23" s="4">
-        <f>'[1]Profiles, RES, Winter'!W$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>210</v>
+        <f>'[1]Profiles, RES, Winter'!W$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="X23" s="4">
-        <f>'[1]Profiles, RES, Winter'!X$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>220</v>
+        <f>'[1]Profiles, RES, Winter'!X$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="Y23" s="4">
-        <f>'[1]Profiles, RES, Winter'!Y$1*VLOOKUP($A18,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>230</v>
+        <f>'[1]Profiles, RES, Winter'!Y$2*VLOOKUP($A23,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -45120,100 +45120,100 @@
         <v>23</v>
       </c>
       <c r="B24" s="4">
-        <f>'[1]Profiles, RES, Winter'!B$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!B$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C24" s="4">
-        <f>'[1]Profiles, RES, Winter'!C$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>10</v>
+        <f>'[1]Profiles, RES, Winter'!C$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="D24" s="4">
-        <f>'[1]Profiles, RES, Winter'!D$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>20</v>
+        <f>'[1]Profiles, RES, Winter'!D$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.5680716832769495E-4</v>
       </c>
       <c r="E24" s="4">
-        <f>'[1]Profiles, RES, Winter'!E$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>30</v>
+        <f>'[1]Profiles, RES, Winter'!E$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
-        <f>'[1]Profiles, RES, Winter'!F$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>40</v>
+        <f>'[1]Profiles, RES, Winter'!F$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="G24" s="4">
-        <f>'[1]Profiles, RES, Winter'!G$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>50</v>
+        <f>'[1]Profiles, RES, Winter'!G$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f>'[1]Profiles, RES, Winter'!H$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>60</v>
+        <f>'[1]Profiles, RES, Winter'!H$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I24" s="4">
-        <f>'[1]Profiles, RES, Winter'!I$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>70</v>
+        <f>'[1]Profiles, RES, Winter'!I$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>9.5351558928408131E-2</v>
       </c>
       <c r="J24" s="4">
-        <f>'[1]Profiles, RES, Winter'!J$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>80</v>
+        <f>'[1]Profiles, RES, Winter'!J$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.8890239553808172</v>
       </c>
       <c r="K24" s="4">
-        <f>'[1]Profiles, RES, Winter'!K$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>90</v>
+        <f>'[1]Profiles, RES, Winter'!K$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>4.9290093261406227</v>
       </c>
       <c r="L24" s="4">
-        <f>'[1]Profiles, RES, Winter'!L$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>100</v>
+        <f>'[1]Profiles, RES, Winter'!L$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.151161195940384</v>
       </c>
       <c r="M24" s="4">
-        <f>'[1]Profiles, RES, Winter'!M$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>110</v>
+        <f>'[1]Profiles, RES, Winter'!M$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.8321139252080076</v>
       </c>
       <c r="N24" s="4">
-        <f>'[1]Profiles, RES, Winter'!N$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>120</v>
+        <f>'[1]Profiles, RES, Winter'!N$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.9588141172167877</v>
       </c>
       <c r="O24" s="4">
-        <f>'[1]Profiles, RES, Winter'!O$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>130</v>
+        <f>'[1]Profiles, RES, Winter'!O$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.8310322757611761</v>
       </c>
       <c r="P24" s="4">
-        <f>'[1]Profiles, RES, Winter'!P$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>140</v>
+        <f>'[1]Profiles, RES, Winter'!P$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>5.8327338392612225</v>
       </c>
       <c r="Q24" s="4">
-        <f>'[1]Profiles, RES, Winter'!Q$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>150</v>
+        <f>'[1]Profiles, RES, Winter'!Q$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>3.8544322026149764</v>
       </c>
       <c r="R24" s="4">
-        <f>'[1]Profiles, RES, Winter'!R$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>160</v>
+        <f>'[1]Profiles, RES, Winter'!R$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0.94168304836792527</v>
       </c>
       <c r="S24" s="4">
-        <f>'[1]Profiles, RES, Winter'!S$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>170</v>
+        <f>'[1]Profiles, RES, Winter'!S$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.3603364725244582E-3</v>
       </c>
       <c r="T24" s="4">
-        <f>'[1]Profiles, RES, Winter'!T$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>180</v>
+        <f>'[1]Profiles, RES, Winter'!T$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.336289658955838E-4</v>
       </c>
       <c r="U24" s="4">
-        <f>'[1]Profiles, RES, Winter'!U$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>190</v>
+        <f>'[1]Profiles, RES, Winter'!U$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>4.8482216329889365E-4</v>
       </c>
       <c r="V24" s="4">
-        <f>'[1]Profiles, RES, Winter'!V$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>200</v>
+        <f>'[1]Profiles, RES, Winter'!V$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="W24" s="4">
-        <f>'[1]Profiles, RES, Winter'!W$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>210</v>
+        <f>'[1]Profiles, RES, Winter'!W$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="X24" s="4">
-        <f>'[1]Profiles, RES, Winter'!X$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>220</v>
+        <f>'[1]Profiles, RES, Winter'!X$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="Y24" s="4">
-        <f>'[1]Profiles, RES, Winter'!Y$1*VLOOKUP($A19,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>230</v>
+        <f>'[1]Profiles, RES, Winter'!Y$2*VLOOKUP($A24,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -45221,100 +45221,100 @@
         <v>24</v>
       </c>
       <c r="B25" s="4">
-        <f>'[1]Profiles, RES, Winter'!B$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <f>'[1]Profiles, RES, Winter'!B$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C25" s="4">
-        <f>'[1]Profiles, RES, Winter'!C$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>10</v>
+        <f>'[1]Profiles, RES, Winter'!C$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="D25" s="4">
-        <f>'[1]Profiles, RES, Winter'!D$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>20</v>
+        <f>'[1]Profiles, RES, Winter'!D$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.5680716832769495E-4</v>
       </c>
       <c r="E25" s="4">
-        <f>'[1]Profiles, RES, Winter'!E$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>30</v>
+        <f>'[1]Profiles, RES, Winter'!E$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="F25" s="4">
-        <f>'[1]Profiles, RES, Winter'!F$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>40</v>
+        <f>'[1]Profiles, RES, Winter'!F$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="G25" s="4">
-        <f>'[1]Profiles, RES, Winter'!G$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>50</v>
+        <f>'[1]Profiles, RES, Winter'!G$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f>'[1]Profiles, RES, Winter'!H$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>60</v>
+        <f>'[1]Profiles, RES, Winter'!H$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I25" s="4">
-        <f>'[1]Profiles, RES, Winter'!I$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>70</v>
+        <f>'[1]Profiles, RES, Winter'!I$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>9.5351558928408131E-2</v>
       </c>
       <c r="J25" s="4">
-        <f>'[1]Profiles, RES, Winter'!J$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>80</v>
+        <f>'[1]Profiles, RES, Winter'!J$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>1.8890239553808172</v>
       </c>
       <c r="K25" s="4">
-        <f>'[1]Profiles, RES, Winter'!K$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>90</v>
+        <f>'[1]Profiles, RES, Winter'!K$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>4.9290093261406227</v>
       </c>
       <c r="L25" s="4">
-        <f>'[1]Profiles, RES, Winter'!L$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>100</v>
+        <f>'[1]Profiles, RES, Winter'!L$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.151161195940384</v>
       </c>
       <c r="M25" s="4">
-        <f>'[1]Profiles, RES, Winter'!M$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>110</v>
+        <f>'[1]Profiles, RES, Winter'!M$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.8321139252080076</v>
       </c>
       <c r="N25" s="4">
-        <f>'[1]Profiles, RES, Winter'!N$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>120</v>
+        <f>'[1]Profiles, RES, Winter'!N$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.9588141172167877</v>
       </c>
       <c r="O25" s="4">
-        <f>'[1]Profiles, RES, Winter'!O$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>130</v>
+        <f>'[1]Profiles, RES, Winter'!O$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.8310322757611761</v>
       </c>
       <c r="P25" s="4">
-        <f>'[1]Profiles, RES, Winter'!P$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>140</v>
+        <f>'[1]Profiles, RES, Winter'!P$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>5.8327338392612225</v>
       </c>
       <c r="Q25" s="4">
-        <f>'[1]Profiles, RES, Winter'!Q$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>150</v>
+        <f>'[1]Profiles, RES, Winter'!Q$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>3.8544322026149764</v>
       </c>
       <c r="R25" s="4">
-        <f>'[1]Profiles, RES, Winter'!R$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>160</v>
+        <f>'[1]Profiles, RES, Winter'!R$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0.94168304836792527</v>
       </c>
       <c r="S25" s="4">
-        <f>'[1]Profiles, RES, Winter'!S$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>170</v>
+        <f>'[1]Profiles, RES, Winter'!S$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>7.3603364725244582E-3</v>
       </c>
       <c r="T25" s="4">
-        <f>'[1]Profiles, RES, Winter'!T$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>180</v>
+        <f>'[1]Profiles, RES, Winter'!T$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>6.336289658955838E-4</v>
       </c>
       <c r="U25" s="4">
-        <f>'[1]Profiles, RES, Winter'!U$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>190</v>
+        <f>'[1]Profiles, RES, Winter'!U$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>4.8482216329889365E-4</v>
       </c>
       <c r="V25" s="4">
-        <f>'[1]Profiles, RES, Winter'!V$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>200</v>
+        <f>'[1]Profiles, RES, Winter'!V$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="W25" s="4">
-        <f>'[1]Profiles, RES, Winter'!W$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>210</v>
+        <f>'[1]Profiles, RES, Winter'!W$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="X25" s="4">
-        <f>'[1]Profiles, RES, Winter'!X$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>220</v>
+        <f>'[1]Profiles, RES, Winter'!X$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="Y25" s="4">
-        <f>'[1]Profiles, RES, Winter'!Y$1*VLOOKUP($A20,'RES installed'!$A$2:$C$11,3,FALSE)</f>
-        <v>230</v>
+        <f>'[1]Profiles, RES, Winter'!Y$2*VLOOKUP($A25,'RES installed'!$A$2:$C$11,3,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
